--- a/PARTSLIST/MOUSER-etc.xlsx
+++ b/PARTSLIST/MOUSER-etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GERUGA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB793C3-1374-4CF7-9F39-497FAD84BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2272693-1BF6-4EFB-A247-7E6EDFD4C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>IC205</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>NC7SZ157P6X</t>
+  </si>
+  <si>
+    <t>IC403</t>
+  </si>
+  <si>
+    <t>TQFP-128_14x14mm_Pitch0.4mm_EP</t>
+  </si>
+  <si>
+    <t>XE216-512-TQ128</t>
+  </si>
+  <si>
+    <t>xCore</t>
+  </si>
+  <si>
+    <t>XMOS</t>
+  </si>
+  <si>
+    <t>XE216-512-TQ128-C20</t>
   </si>
 </sst>
 </file>
@@ -527,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +653,29 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
